--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3856.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3856.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.383589129791872</v>
+        <v>3.795630931854248</v>
       </c>
       <c r="B1">
-        <v>2.957489673354874</v>
+        <v>6.226106643676758</v>
       </c>
       <c r="C1">
-        <v>4.042028233162406</v>
+        <v>5.425380706787109</v>
       </c>
       <c r="D1">
-        <v>3.110781127299829</v>
+        <v>6.305791854858398</v>
       </c>
       <c r="E1">
-        <v>1.044255989611294</v>
+        <v>3.713513612747192</v>
       </c>
     </row>
   </sheetData>
